--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -397,9 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sharon/GitHub/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>question.type</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Sowieso</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -463,6 +468,9 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -470,6 +478,9 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sharon/GitHub/assessment_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>question.type</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Sowieso</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,9 +465,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -479,9 +474,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sharon/GitHub/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="440" windowWidth="29220" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,12 +398,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sharon/GitHub/assessment_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="440" windowWidth="29220" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>Page</t>
   </si>
   <si>
-    <t>Multibple choice</t>
-  </si>
-  <si>
-    <t>Multibple answer</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Sowieso</t>
+  </si>
+  <si>
+    <t>Multiple answer</t>
+  </si>
+  <si>
+    <t>Multiple choice</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -459,47 +459,47 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sharon/GitHub/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="11400" yWindow="1120" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
   <si>
     <t>question.type</t>
   </si>
@@ -56,25 +56,46 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Testvision</t>
-  </si>
-  <si>
-    <t>TurnitIn</t>
-  </si>
-  <si>
     <t>Fixed value</t>
   </si>
   <si>
     <t>Random value</t>
   </si>
   <si>
-    <t>Sowieso</t>
-  </si>
-  <si>
     <t>Multiple answer</t>
   </si>
   <si>
     <t>Multiple choice</t>
+  </si>
+  <si>
+    <t>Generic assessment tool</t>
+  </si>
+  <si>
+    <t>Grading tool for written assignments</t>
+  </si>
+  <si>
+    <t>Parameterised assessment tool</t>
+  </si>
+  <si>
+    <t>Hotspot</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>assessment.type</t>
+  </si>
+  <si>
+    <t>summative</t>
+  </si>
+  <si>
+    <t>formative</t>
+  </si>
+  <si>
+    <t>LMS</t>
   </si>
 </sst>
 </file>
@@ -395,19 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,10 +436,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -426,10 +450,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -437,10 +464,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -448,10 +478,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,47 +492,372 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
